--- a/Hotel-Booking-Test-Report.xlsx
+++ b/Hotel-Booking-Test-Report.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edimistra/Documents/Test Automation/testcafe-hotel-booking/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FAB753-15CF-5A4C-B8C2-E6C6B13BCD05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>Test scenarios</t>
   </si>
@@ -154,35 +174,40 @@
     <t>Notes for further testing:</t>
   </si>
   <si>
-    <t>- Please check the bug tickets that were added to the bug tracking tool</t>
-  </si>
-  <si>
-    <t>- Make sure to clarify with the product owner/product manager the business rules discussed in the comments</t>
-  </si>
-  <si>
-    <t>- I've noted that the rendering of the recently added booking took longer than expected even though the jquery call was pretty quick (in average 200 ms), so I opened a new bug ticket related to the performance of adding a new booking BKNG-005</t>
+    <t>* I also noted that the sorting of the bookings in the list changes after reloading the page several times. Reported in BKNG-006 I've noted that the rendering of the recently added booking took longer than expected even though the jquery call was pretty quick (in average 200 ms), so I opened a new bug ticket related to the performance of adding a new booking BKNG-005</t>
+  </si>
+  <si>
+    <t>* I've noted that the rendering of the recently added booking took longer than expected even though the jquery call was pretty quick (in average 200 ms), so I opened a new bug ticket related to the performance of adding a new booking BKNG-005</t>
+  </si>
+  <si>
+    <t>* Make sure to clarify with the product owner/product manager the business rules discussed in the comments</t>
+  </si>
+  <si>
+    <t>* Please check the bug tickets that were added to the bug tracking tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="mmmm d, yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -192,51 +217,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -426,32 +452,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="26.57"/>
-    <col customWidth="1" min="3" max="3" width="20.43"/>
-    <col customWidth="1" min="9" max="9" width="35.14"/>
-    <col customWidth="1" min="12" max="12" width="20.0"/>
-    <col customWidth="1" min="13" max="13" width="16.86"/>
+    <col min="1" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="35.1640625" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -492,7 +523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -506,16 +537,16 @@
         <v>17</v>
       </c>
       <c r="E3" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="H3" s="3">
-        <v>44155.0</v>
+        <v>44155</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>18</v>
@@ -530,10 +561,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="5">
-        <v>44143.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -547,16 +578,16 @@
         <v>24</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="H4" s="3">
-        <v>44155.0</v>
+        <v>44155</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>25</v>
@@ -568,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="5">
-        <v>44143.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -585,16 +616,16 @@
         <v>24</v>
       </c>
       <c r="E5" s="2">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="H5" s="3">
-        <v>44155.0</v>
+        <v>44155</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>28</v>
@@ -607,10 +638,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="5">
-        <v>44143.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -624,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E6" s="2">
-        <v>-500.0</v>
+        <v>-500</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="H6" s="3">
-        <v>44155.0</v>
+        <v>44155</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>30</v>
@@ -648,10 +679,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="5">
-        <v>44143.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -665,16 +696,16 @@
         <v>24</v>
       </c>
       <c r="E7" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="H7" s="3">
-        <v>44155.0</v>
+        <v>44155</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>33</v>
@@ -686,10 +717,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="5">
-        <v>44143.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -703,16 +734,16 @@
         <v>24</v>
       </c>
       <c r="E8" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="H8" s="3">
-        <v>44155.0</v>
+        <v>44155</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>33</v>
@@ -724,10 +755,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="5">
-        <v>44143.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -741,16 +772,16 @@
         <v>24</v>
       </c>
       <c r="E9" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="H9" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>36</v>
@@ -762,10 +793,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="5">
-        <v>44143.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -779,16 +810,16 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>44155.0</v>
+        <v>44155</v>
       </c>
       <c r="H10" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>38</v>
@@ -803,10 +834,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="5">
-        <v>44143.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -844,10 +875,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="5">
-        <v>44143.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -861,7 +892,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -875,16 +906,16 @@
         <v>24</v>
       </c>
       <c r="E13" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="H13" s="3">
-        <v>44155.0</v>
+        <v>44155</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="2" t="s">
@@ -894,34 +925,40 @@
         <v>21</v>
       </c>
       <c r="M13" s="5">
-        <v>44143.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>